--- a/data/income_statement/2digits/size/36_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/36_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>36-Water collection, treatment and supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>36-Water collection, treatment and supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7001.67479</v>
+        <v>8901.678800000002</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7933.527139999999</v>
+        <v>9885.216920000001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8870.88084</v>
+        <v>11454.92923</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8640.581529999999</v>
+        <v>11711.45965</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>16758.037</v>
+        <v>22266.28264</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>21123.63003</v>
+        <v>25772.14144</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20412.14518</v>
+        <v>24141.36664</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23388.01807</v>
+        <v>28440.45232</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>22284.67977</v>
+        <v>25120.82897</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>74181.6042</v>
+        <v>87134.39096999999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>52183.60011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>56561.46501</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>75323.52099999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6905.46738</v>
+        <v>8805.171390000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7863.66256</v>
+        <v>9509.6546</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8523.862929999999</v>
+        <v>10819.45423</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8603.84009</v>
+        <v>11397.37273</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13729.00787</v>
+        <v>19096.32179</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>21050.44162</v>
+        <v>25467.12924</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>19806.61577</v>
+        <v>23172.99969</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>22480.4367</v>
+        <v>26142.83873</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>21556.92811</v>
+        <v>24010.91889</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>72027.18134000001</v>
+        <v>84766.33785</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>49811.8502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>53729.36051</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>67219.361</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>57.54351</v>
@@ -1040,91 +956,101 @@
         <v>3.20248</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>784.45173</v>
+        <v>866.5301999999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11.17768</v>
+        <v>101.56549</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>382.7924</v>
+        <v>643.92247</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>629.6989599999999</v>
+        <v>1434.52073</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>375.42411</v>
+        <v>448.42411</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1740.58316</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2028.81936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2031.17936</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6115.15</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>38.6639</v>
+        <v>38.9639</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>69.86458</v>
+        <v>375.56232</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>142.99911</v>
+        <v>431.4562</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>33.53896</v>
+        <v>310.88444</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2244.5774</v>
+        <v>2303.43065</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>62.01073</v>
+        <v>203.44671</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>222.73701</v>
+        <v>324.44448</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>277.88241</v>
+        <v>863.09286</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>352.32755</v>
+        <v>661.48597</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>413.8397</v>
+        <v>627.46996</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>342.93055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>800.9251400000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1989.01</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>13.36406</v>
+        <v>41.22685</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>4.98607</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>44.98447</v>
+        <v>50.21112</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>41.24528</v>
+        <v>43.66921</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>31.17207</v>
+        <v>34.7562</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>13.94346</v>
+        <v>75.30997000000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2.07649</v>
+        <v>2.99883</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>76.7208</v>
@@ -1136,34 +1062,39 @@
         <v>331.21546</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>41.28331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>55.26831</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>366.684</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12.7385</v>
+        <v>40.60129</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>4.78088</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>44.98447</v>
+        <v>50.21112</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11.24528</v>
+        <v>12.85321</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>28.5205</v>
+        <v>31.45627</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13.64166</v>
+        <v>75.00816999999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1.656</v>
+        <v>2.57834</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>73.35807000000001</v>
@@ -1175,13 +1106,18 @@
         <v>328.59143</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>40.20765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>53.86265</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>314.223</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1193,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>30</v>
+        <v>30.816</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>47.885</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.6255599999999999</v>
@@ -1235,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2.65157</v>
+        <v>3.29993</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0</v>
@@ -1253,91 +1194,106 @@
         <v>2.31691</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1.07566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.40566</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4.576</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6988.31073</v>
+        <v>8860.451949999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7928.54107</v>
+        <v>9880.23085</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8825.896369999999</v>
+        <v>11404.71811</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8599.33625</v>
+        <v>11667.79044</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>16726.86493</v>
+        <v>22231.52644</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21109.68657</v>
+        <v>25696.83147</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20410.06869</v>
+        <v>24138.36781</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>23311.29727</v>
+        <v>28363.73152</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>22261.30389</v>
+        <v>25097.45309</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>73850.38873999999</v>
+        <v>86803.17551</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>52142.3168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>56506.1967</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>74956.837</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4587.814780000001</v>
+        <v>5845.901110000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5102.77696</v>
+        <v>5927.504269999999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5732.42106</v>
+        <v>7336.02725</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5848.96164</v>
+        <v>7881.97136</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10228.98528</v>
+        <v>13494.82855</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>17497.18657</v>
+        <v>20151.48121</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15097.23811</v>
+        <v>16788.46895</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>15708.59894</v>
+        <v>18059.77692</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>15697.97178</v>
+        <v>17118.85745</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>55442.5678</v>
+        <v>67727.56143</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>30280.25247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31780.24782</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>47883.847</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>398.06528</v>
@@ -1349,112 +1305,127 @@
         <v>1282.81387</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1535.79359</v>
+        <v>2068.16593</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4342.832179999999</v>
+        <v>5683.36608</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1509.99895</v>
+        <v>2908.55558</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3067.23466</v>
+        <v>3479.27466</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4803.12387</v>
+        <v>5253.12879</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1824.32485</v>
+        <v>2102.06418</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>11397.1161</v>
+        <v>23192.11589</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3399.84326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4753.84996</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11325.155</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1461.69019</v>
+        <v>1481.37439</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2256.9021</v>
+        <v>2293.77507</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1683.57556</v>
+        <v>2612.7094</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>791.06539</v>
+        <v>1643.51153</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3194.64017</v>
+        <v>4946.901400000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>9567.699470000001</v>
+        <v>10361.62531</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4548.36852</v>
+        <v>5453.94854</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6066.68855</v>
+        <v>7066.109179999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4984.16875</v>
+        <v>5538.04421</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>18530.27577</v>
+        <v>18685.69713</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11355.7696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11646.30165</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>17525.289</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2728.05931</v>
+        <v>3966.46144</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2563.17444</v>
+        <v>3351.02878</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2719.42146</v>
+        <v>3393.89381</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3522.10266</v>
+        <v>4170.2939</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2657.17543</v>
+        <v>2830.22357</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6419.48815</v>
+        <v>6881.30032</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7402.16921</v>
+        <v>7775.78003</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4838.78652</v>
+        <v>5740.53895</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8885.240890000001</v>
+        <v>9474.511769999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>25388.22687</v>
+        <v>25722.79935</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15461.92851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15317.38511</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>18682.294</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>62.7111</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>351.109</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2400.49595</v>
+        <v>3014.55084</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2825.76411</v>
+        <v>3952.72658</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3093.47531</v>
+        <v>4068.69086</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2750.37461</v>
+        <v>3785.81908</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6497.879650000001</v>
+        <v>8736.697890000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3612.5</v>
+        <v>5545.35026</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5312.83058</v>
+        <v>7349.89886</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7602.69833</v>
+        <v>10303.9546</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6563.33211</v>
+        <v>7978.59564</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>18407.82094</v>
+        <v>19075.61408</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>21862.06433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>24725.94888</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>27072.99</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2230.55584</v>
+        <v>3140.41607</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2525.33562</v>
+        <v>3484.08444</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3814.1722</v>
+        <v>4800.25371</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3354.13482</v>
+        <v>4593.48974</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6774.08707</v>
+        <v>10116.36895</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4151.99768</v>
+        <v>10450.42156</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4997.61224</v>
+        <v>8266.973379999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7812.87206</v>
+        <v>11283.36914</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7489.137839999999</v>
+        <v>8727.472519999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>17260.19117</v>
+        <v>18688.72004</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>19946.38532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22163.52319</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>25236.851</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1583,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>0</v>
+        <v>1.61094</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5.245939999999999</v>
+        <v>9.207940000000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>0</v>
+        <v>5.1025</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>4.28063</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>265.65823</v>
+        <v>657.41523</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>1043.38137</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1214.46571</v>
+        <v>1314.96965</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>838.84402</v>
+        <v>957.99249</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1005.95424</v>
+        <v>1275.70814</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1372.54976</v>
+        <v>1460.93123</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1786.36144</v>
+        <v>1805.86314</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1747.24496</v>
+        <v>2205.60786</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2392.10735</v>
+        <v>2646.27522</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2595.56017</v>
+        <v>2882.32014</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3105.14599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3521.81207</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3893.721</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1964.89761</v>
+        <v>2483.00084</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1481.95425</v>
+        <v>2440.70307</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2599.70649</v>
+        <v>3485.28406</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2515.2908</v>
+        <v>3633.88631</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5762.88689</v>
+        <v>8831.452869999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2779.44792</v>
+        <v>8984.38783</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3206.97017</v>
+        <v>6456.829610000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>6058.34298</v>
+        <v>9070.47716</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5097.03049</v>
+        <v>6081.1973</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>14664.631</v>
+        <v>15806.3999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>16841.23933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18641.71112</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21343.13</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>169.94011</v>
+        <v>-125.86523</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>300.42849</v>
+        <v>468.64214</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-720.6968900000001</v>
+        <v>-731.56285</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-603.7602099999999</v>
+        <v>-807.67066</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-276.20742</v>
+        <v>-1379.67106</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-539.4976800000001</v>
+        <v>-4905.0713</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>315.21834</v>
+        <v>-917.07452</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-210.17373</v>
+        <v>-979.41454</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-925.8057299999999</v>
+        <v>-748.87688</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1147.62977</v>
+        <v>386.89404</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1915.67901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2562.42569</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1836.139</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>95.00702</v>
+        <v>337.50099</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>34.06467</v>
+        <v>66.03827</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>64.36694</v>
+        <v>89.93754</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>105.21981</v>
+        <v>566.12788</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>158.90584</v>
+        <v>364.46268</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>925.8433100000001</v>
+        <v>958.9218000000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>91.71935000000001</v>
+        <v>435.67491</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>417.55789</v>
+        <v>744.37308</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>474.86124</v>
+        <v>579.8084399999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1874.35194</v>
+        <v>1914.15998</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>783.3270500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>872.02304</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2017.815</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11.03934</v>
+        <v>83.40531</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>13.40188</v>
+        <v>20.73169</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>3.45841</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>16.15216</v>
+        <v>57.24352</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>13.91046</v>
+        <v>124.16615</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>124.81442</v>
+        <v>128.62346</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>36.41866</v>
+        <v>236.81492</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>77.16113</v>
+        <v>270.18733</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>52.02681</v>
+        <v>69.47926</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>140.23948</v>
+        <v>141.38524</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>55.81405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>56.10172</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>234.78</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.35</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3.6</v>
+        <v>3.63639</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>3.3</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1946,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>11.067</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>45.02783</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>50.124</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0</v>
@@ -1979,7 +2015,7 @@
         <v>0.03342</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2.23498</v>
+        <v>2.27734</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>0.11112</v>
@@ -1996,35 +2032,40 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>0.05338</v>
+        <v>170.18138</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>0.00564</v>
+        <v>24.61304</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>13.8595</v>
+        <v>19.0911</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4.502050000000001</v>
+        <v>383.64076</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>109.36452</v>
+        <v>142.30723</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>507.17634</v>
+        <v>536.20551</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>11.99261</v>
+        <v>130.5905</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>66.95065</v>
+        <v>131.07065</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>49.66878</v>
@@ -2033,13 +2074,18 @@
         <v>1365.94734</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>601.8130600000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>604.60229</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1313.24</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>13.11615</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>82.5643</v>
@@ -2126,82 +2182,92 @@
         <v>17.05715</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>43.70632</v>
+        <v>64.04532</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>81.7706</v>
+        <v>122.4486</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>34.39744</v>
+        <v>96.75588</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>290.49257</v>
+        <v>290.69049</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>41.57196</v>
+        <v>66.53336999999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>273.30975</v>
+        <v>331.91174</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>320.6496</v>
+        <v>408.14435</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>252.30263</v>
+        <v>290.96491</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>109.58379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>195.20288</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>419.671</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>86.62714</v>
+        <v>259.19255</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7.44217</v>
+        <v>176.67369</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>76.33280000000001</v>
+        <v>1290.69376</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>34.08443</v>
+        <v>39.59012999999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>140.02106</v>
+        <v>8192.49533</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>206.75514</v>
+        <v>1641.47876</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>45.80793</v>
+        <v>2213.48737</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>284.88432</v>
+        <v>2498.7193</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>79.38527000000001</v>
+        <v>972.8925899999999</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>1259.99436</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>507.20991</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>511.04461</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>907.718</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.01467</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>0.50018</v>
+        <v>10.42673</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>21.84904</v>
@@ -2210,7 +2276,7 @@
         <v>2.07932</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>0</v>
+        <v>5.766529999999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>0.03508</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>11.10959</v>
@@ -2252,13 +2323,13 @@
         <v>14.33196</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6.39354</v>
+        <v>22.28554</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22.24833</v>
+        <v>41.55533</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>37.154</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>0</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>60.905</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>7.02542</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3.75756</v>
+        <v>169.29755</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>0</v>
+        <v>159.30497</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3.89845</v>
+        <v>1218.25936</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3.3002</v>
+        <v>8.00315</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>125.6126</v>
+        <v>760.65509</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>194.32575</v>
+        <v>1585.01077</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>16.45208</v>
+        <v>2161.64547</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>270.25157</v>
+        <v>2446.305</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>61.4494</v>
+        <v>954.95672</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>1153.17844</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>507.20859</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>511.04329</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>829.977</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>0</v>
+        <v>0.7627</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>71.74532000000001</v>
@@ -2438,22 +2534,22 @@
         <v>6.94199</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>0.07804999999999999</v>
+        <v>0.07809999999999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>18.14924</v>
+        <v>18.18929</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>0.0765</v>
+        <v>7411.74175</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6.00077</v>
+        <v>34.14737</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7.10752</v>
+        <v>10.28657</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14.53825</v>
+        <v>15.1658</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>17.93587</v>
@@ -2464,92 +2560,107 @@
       <c r="M43" s="48" t="n">
         <v>0.00132</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>16.836</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>65.98674000000001</v>
+        <v>74.88289</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>72.05757000000001</v>
+        <v>74.58492</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>80.68974</v>
+        <v>113.24979</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>98.56422000000001</v>
+        <v>468.79555</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>104.00733</v>
+        <v>366.17312</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>87.84033000000001</v>
+        <v>111.92499</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>107.6405</v>
+        <v>182.48027</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>240.44274</v>
+        <v>369.57317</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>77.74167</v>
+        <v>338.42962</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>690.2885</v>
+        <v>850.5346099999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>418.95364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>572.10096</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>501.366</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>35.29101</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>66.59236999999999</v>
+        <v>69.11972</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>65.78974000000001</v>
+        <v>98.34979</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>71.06993</v>
+        <v>441.30126</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>77.86278999999999</v>
+        <v>340.02858</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>61.8036</v>
+        <v>85.37375999999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>98.12041000000001</v>
+        <v>172.96018</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>212.93672</v>
+        <v>342.06715</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>71.07328</v>
+        <v>331.76123</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>665.61838</v>
+        <v>825.86449</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>404.83419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>557.98151</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>499.578</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>30.69573</v>
+        <v>39.59188</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>5.465199999999999</v>
@@ -2564,7 +2675,7 @@
         <v>26.14454</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26.03673</v>
+        <v>26.55123</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>9.52009</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>14.11945</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1.788</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>112.33325</v>
+        <v>-122.43968</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>254.99342</v>
+        <v>283.4218</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-813.35249</v>
+        <v>-2045.56886</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-631.1890500000001</v>
+        <v>-749.92846</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-361.3299699999999</v>
+        <v>-9573.876829999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>91.75016000000001</v>
+        <v>-5699.55325</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>253.48926</v>
+        <v>-2877.36725</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-317.9429</v>
+        <v>-3103.33393</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-608.0714300000001</v>
+        <v>-1480.39065</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1071.69885</v>
+        <v>190.52505</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1772.84251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2351.30316</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2444.87</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>31.03351</v>
+        <v>54.49976</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>63.80882</v>
+        <v>78.6772</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>27.67548</v>
+        <v>45.33651</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>63.53429</v>
+        <v>64.32141</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>203.63235</v>
+        <v>7578.407969999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>560.07363</v>
+        <v>672.47385</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>134.73059</v>
+        <v>172.82384</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>205.55477</v>
+        <v>283.0751</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1281.87359</v>
+        <v>1305.06698</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1025.47999</v>
+        <v>1069.04435</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2270.89352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2434.07425</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2101.028</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0</v>
+        <v>0.00696</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0</v>
@@ -2681,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>53.95018</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0</v>
+        <v>2.522</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>5.167</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>31.03351</v>
+        <v>54.4928</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>63.80882</v>
+        <v>78.6772</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>19.9914</v>
+        <v>37.65243</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>50.13949</v>
+        <v>50.92661</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>203.63235</v>
+        <v>7578.407969999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>560.07363</v>
+        <v>618.52367</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>134.73059</v>
+        <v>172.82384</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>205.55477</v>
+        <v>280.5531</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1281.87359</v>
+        <v>1304.51698</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1025.47999</v>
+        <v>1069.04435</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2270.89352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2434.07425</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2095.861</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>74.34818</v>
+        <v>266.41934</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>99.16566</v>
+        <v>108.12159</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>42.54152</v>
+        <v>54.64943</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>41.90489</v>
+        <v>90.65118</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>646.7316099999999</v>
+        <v>706.4360300000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>315.00794</v>
+        <v>323.12423</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>390.22133</v>
+        <v>390.65931</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>888.59036</v>
+        <v>960.6786800000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1822.55008</v>
+        <v>1835.74384</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1252.39901</v>
+        <v>1261.09329</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1150.69186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1478.80155</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2739.865</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>79.17400000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>14.99205</v>
+        <v>15.0223</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>29.65267</v>
@@ -2831,19 +2977,19 @@
         <v>14.84209</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3.30804</v>
+        <v>46.28567</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>38.64608</v>
+        <v>54.95976</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9.191610000000001</v>
+        <v>9.25986</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>112.71556</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>187.60417</v>
+        <v>187.75417</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>381.84421</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>393.6318</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>300.864</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>59.35613</v>
+        <v>251.39704</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>60.7474</v>
+        <v>69.70333000000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>27.69943</v>
+        <v>39.80734</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>38.59685</v>
+        <v>44.36551</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>608.0855300000001</v>
+        <v>651.47627</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>305.81633</v>
+        <v>313.86437</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>277.50577</v>
+        <v>277.94375</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>700.98619</v>
+        <v>772.9245100000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1440.70587</v>
+        <v>1453.89963</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1205.91689</v>
+        <v>1214.61117</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>757.06006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1085.16975</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2359.827</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>69.01858</v>
+        <v>-334.35926</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>219.63658</v>
+        <v>253.97741</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-828.21853</v>
+        <v>-2054.88178</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-609.55965</v>
+        <v>-776.25823</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-804.42923</v>
+        <v>-2701.90489</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>336.81585</v>
+        <v>-5350.20363</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2.00148</v>
+        <v>-3095.20272</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1000.97849</v>
+        <v>-3780.93751</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1148.74792</v>
+        <v>-2011.06751</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>844.7798299999999</v>
+        <v>-1.52389</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2893.04417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3306.57586</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1806.033</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>33.82916</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>72.29291000000001</v>
+        <v>130.90518</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>33.41916000000001</v>
+        <v>73.49899000000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>117.40007</v>
+        <v>158.26346</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>123.9246</v>
+        <v>125.76528</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>269.47098</v>
+        <v>278.48576</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>188.65621</v>
+        <v>225.92152</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>269.52596</v>
+        <v>374.49248</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>125.84259</v>
+        <v>174.58637</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>409.49883</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>421.34632</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>432.82052</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>426.247</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>35.18942</v>
+        <v>-368.18842</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>147.34367</v>
+        <v>123.07223</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-861.6376899999999</v>
+        <v>-2128.38077</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-726.9597199999999</v>
+        <v>-934.5216899999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-928.3538299999999</v>
+        <v>-2827.67017</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>67.34487</v>
+        <v>-5628.68939</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-190.65769</v>
+        <v>-3321.12424</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1270.50445</v>
+        <v>-4155.429990000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1274.59051</v>
+        <v>-2185.65388</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>435.281</v>
+        <v>-411.02272</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2471.69785</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2873.75534</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1379.786</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>91</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>